--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -121,22 +121,22 @@
     <t>safety</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>community</t>
@@ -1475,25 +1475,25 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6855895196506551</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L21">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1501,25 +1501,25 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6829268292682927</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1527,25 +1527,25 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6739130434782609</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1579,25 +1579,25 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6265432098765432</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L25">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1605,25 +1605,25 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6190476190476191</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="10:17">
